--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_General.xlsx
@@ -40,16 +40,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>AREPD</t>
   </si>
   <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
   </si>
   <si>
     <t>AV-MCPS</t>
@@ -510,10 +510,10 @@
         <v>25.6</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>4.214637532725376</v>
+        <v>1.425242158493729</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -521,16 +521,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>4.684149121368249</v>
+        <v>4.214637532725376</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>1.425242158493729</v>
+        <v>4.684149121368249</v>
       </c>
     </row>
     <row r="9" spans="1:5">
